--- a/natmiOut/OldD0/LR-pairs_lrc2p/Igf2-Igf1r.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Igf2-Igf1r.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.98443220722922</v>
+        <v>3.228519</v>
       </c>
       <c r="H2">
-        <v>1.98443220722922</v>
+        <v>9.685556999999999</v>
       </c>
       <c r="I2">
-        <v>0.04063357198977779</v>
+        <v>0.0641296566303666</v>
       </c>
       <c r="J2">
-        <v>0.04063357198977779</v>
+        <v>0.0641296566303666</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.9001982449359</v>
+        <v>24.519512</v>
       </c>
       <c r="N2">
-        <v>16.9001982449359</v>
+        <v>73.558536</v>
       </c>
       <c r="O2">
-        <v>0.38358297921569</v>
+        <v>0.4736537296697991</v>
       </c>
       <c r="P2">
-        <v>0.38358297921569</v>
+        <v>0.4736537296697991</v>
       </c>
       <c r="Q2">
-        <v>33.53729770580954</v>
+        <v>79.161710362728</v>
       </c>
       <c r="R2">
-        <v>33.53729770580954</v>
+        <v>712.455393264552</v>
       </c>
       <c r="S2">
-        <v>0.01558634660001417</v>
+        <v>0.0303752510454167</v>
       </c>
       <c r="T2">
-        <v>0.01558634660001417</v>
+        <v>0.0303752510454167</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.98443220722922</v>
+        <v>3.228519</v>
       </c>
       <c r="H3">
-        <v>1.98443220722922</v>
+        <v>9.685556999999999</v>
       </c>
       <c r="I3">
-        <v>0.04063357198977779</v>
+        <v>0.0641296566303666</v>
       </c>
       <c r="J3">
-        <v>0.04063357198977779</v>
+        <v>0.0641296566303666</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.6403963973478</v>
+        <v>14.70328633333333</v>
       </c>
       <c r="N3">
-        <v>14.6403963973478</v>
+        <v>44.109859</v>
       </c>
       <c r="O3">
-        <v>0.3322923663736362</v>
+        <v>0.284029568377475</v>
       </c>
       <c r="P3">
-        <v>0.3322923663736362</v>
+        <v>0.284029568377475</v>
       </c>
       <c r="Q3">
-        <v>29.05287413749961</v>
+        <v>47.46983928960699</v>
       </c>
       <c r="R3">
-        <v>29.05287413749961</v>
+        <v>427.228553606463</v>
       </c>
       <c r="S3">
-        <v>0.01350222579069676</v>
+        <v>0.0182147186929187</v>
       </c>
       <c r="T3">
-        <v>0.01350222579069676</v>
+        <v>0.0182147186929187</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.98443220722922</v>
+        <v>3.228519</v>
       </c>
       <c r="H4">
-        <v>1.98443220722922</v>
+        <v>9.685556999999999</v>
       </c>
       <c r="I4">
-        <v>0.04063357198977779</v>
+        <v>0.0641296566303666</v>
       </c>
       <c r="J4">
-        <v>0.04063357198977779</v>
+        <v>0.0641296566303666</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.5181857537903</v>
+        <v>12.543947</v>
       </c>
       <c r="N4">
-        <v>12.5181857537903</v>
+        <v>37.631841</v>
       </c>
       <c r="O4">
-        <v>0.2841246544106739</v>
+        <v>0.2423167019527259</v>
       </c>
       <c r="P4">
-        <v>0.2841246544106739</v>
+        <v>0.2423167019527259</v>
       </c>
       <c r="Q4">
-        <v>24.84149098589946</v>
+        <v>40.498371224493</v>
       </c>
       <c r="R4">
-        <v>24.84149098589946</v>
+        <v>364.485341020437</v>
       </c>
       <c r="S4">
-        <v>0.01154499959906685</v>
+        <v>0.0155396868920312</v>
       </c>
       <c r="T4">
-        <v>0.01154499959906685</v>
+        <v>0.0155396868920312</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.27460541142354</v>
+        <v>9.281951000000001</v>
       </c>
       <c r="H5">
-        <v>9.27460541142354</v>
+        <v>27.845853</v>
       </c>
       <c r="I5">
-        <v>0.1899084006442606</v>
+        <v>0.1843719459262553</v>
       </c>
       <c r="J5">
-        <v>0.1899084006442606</v>
+        <v>0.1843719459262553</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.9001982449359</v>
+        <v>24.519512</v>
       </c>
       <c r="N5">
-        <v>16.9001982449359</v>
+        <v>73.558536</v>
       </c>
       <c r="O5">
-        <v>0.38358297921569</v>
+        <v>0.4736537296697991</v>
       </c>
       <c r="P5">
-        <v>0.38358297921569</v>
+        <v>0.4736537296697991</v>
       </c>
       <c r="Q5">
-        <v>156.7426700966131</v>
+        <v>227.5889089279121</v>
       </c>
       <c r="R5">
-        <v>156.7426700966131</v>
+        <v>2048.300180351208</v>
       </c>
       <c r="S5">
-        <v>0.07284563009721233</v>
+        <v>0.08732845983444935</v>
       </c>
       <c r="T5">
-        <v>0.07284563009721233</v>
+        <v>0.08732845983444935</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.27460541142354</v>
+        <v>9.281951000000001</v>
       </c>
       <c r="H6">
-        <v>9.27460541142354</v>
+        <v>27.845853</v>
       </c>
       <c r="I6">
-        <v>0.1899084006442606</v>
+        <v>0.1843719459262553</v>
       </c>
       <c r="J6">
-        <v>0.1899084006442606</v>
+        <v>0.1843719459262553</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.6403963973478</v>
+        <v>14.70328633333333</v>
       </c>
       <c r="N6">
-        <v>14.6403963973478</v>
+        <v>44.109859</v>
       </c>
       <c r="O6">
-        <v>0.3322923663736362</v>
+        <v>0.284029568377475</v>
       </c>
       <c r="P6">
-        <v>0.3322923663736362</v>
+        <v>0.284029568377475</v>
       </c>
       <c r="Q6">
-        <v>135.7838996522276</v>
+        <v>136.4751832849697</v>
       </c>
       <c r="R6">
-        <v>135.7838996522276</v>
+        <v>1228.276649564727</v>
       </c>
       <c r="S6">
-        <v>0.06310511184431393</v>
+        <v>0.05236708422234945</v>
       </c>
       <c r="T6">
-        <v>0.06310511184431393</v>
+        <v>0.05236708422234945</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.27460541142354</v>
+        <v>9.281951000000001</v>
       </c>
       <c r="H7">
-        <v>9.27460541142354</v>
+        <v>27.845853</v>
       </c>
       <c r="I7">
-        <v>0.1899084006442606</v>
+        <v>0.1843719459262553</v>
       </c>
       <c r="J7">
-        <v>0.1899084006442606</v>
+        <v>0.1843719459262553</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.5181857537903</v>
+        <v>12.543947</v>
       </c>
       <c r="N7">
-        <v>12.5181857537903</v>
+        <v>37.631841</v>
       </c>
       <c r="O7">
-        <v>0.2841246544106739</v>
+        <v>0.2423167019527259</v>
       </c>
       <c r="P7">
-        <v>0.2841246544106739</v>
+        <v>0.2423167019527259</v>
       </c>
       <c r="Q7">
-        <v>116.1012333333086</v>
+        <v>116.432301400597</v>
       </c>
       <c r="R7">
-        <v>116.1012333333086</v>
+        <v>1047.890712605373</v>
       </c>
       <c r="S7">
-        <v>0.05395765870273434</v>
+        <v>0.04467640186945651</v>
       </c>
       <c r="T7">
-        <v>0.05395765870273434</v>
+        <v>0.04467640186945651</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.5782196061968</v>
+        <v>37.833149</v>
       </c>
       <c r="H8">
-        <v>37.5782196061968</v>
+        <v>113.499447</v>
       </c>
       <c r="I8">
-        <v>0.7694580273659616</v>
+        <v>0.751498397443378</v>
       </c>
       <c r="J8">
-        <v>0.7694580273659616</v>
+        <v>0.7514983974433781</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.9001982449359</v>
+        <v>24.519512</v>
       </c>
       <c r="N8">
-        <v>16.9001982449359</v>
+        <v>73.558536</v>
       </c>
       <c r="O8">
-        <v>0.38358297921569</v>
+        <v>0.4736537296697991</v>
       </c>
       <c r="P8">
-        <v>0.38358297921569</v>
+        <v>0.4736537296697991</v>
       </c>
       <c r="Q8">
-        <v>635.079361036463</v>
+        <v>927.6503509032881</v>
       </c>
       <c r="R8">
-        <v>635.079361036463</v>
+        <v>8348.853158129592</v>
       </c>
       <c r="S8">
-        <v>0.2951510025184634</v>
+        <v>0.355950018789933</v>
       </c>
       <c r="T8">
-        <v>0.2951510025184634</v>
+        <v>0.355950018789933</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>37.5782196061968</v>
+        <v>37.833149</v>
       </c>
       <c r="H9">
-        <v>37.5782196061968</v>
+        <v>113.499447</v>
       </c>
       <c r="I9">
-        <v>0.7694580273659616</v>
+        <v>0.751498397443378</v>
       </c>
       <c r="J9">
-        <v>0.7694580273659616</v>
+        <v>0.7514983974433781</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.6403963973478</v>
+        <v>14.70328633333333</v>
       </c>
       <c r="N9">
-        <v>14.6403963973478</v>
+        <v>44.109859</v>
       </c>
       <c r="O9">
-        <v>0.3322923663736362</v>
+        <v>0.284029568377475</v>
       </c>
       <c r="P9">
-        <v>0.3322923663736362</v>
+        <v>0.284029568377475</v>
       </c>
       <c r="Q9">
-        <v>550.160030941308</v>
+        <v>556.2716226386636</v>
       </c>
       <c r="R9">
-        <v>550.160030941308</v>
+        <v>5006.444603747973</v>
       </c>
       <c r="S9">
-        <v>0.2556850287386255</v>
+        <v>0.2134477654622068</v>
       </c>
       <c r="T9">
-        <v>0.2556850287386255</v>
+        <v>0.2134477654622068</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>37.5782196061968</v>
+        <v>37.833149</v>
       </c>
       <c r="H10">
-        <v>37.5782196061968</v>
+        <v>113.499447</v>
       </c>
       <c r="I10">
-        <v>0.7694580273659616</v>
+        <v>0.751498397443378</v>
       </c>
       <c r="J10">
-        <v>0.7694580273659616</v>
+        <v>0.7514983974433781</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.5181857537903</v>
+        <v>12.543947</v>
       </c>
       <c r="N10">
-        <v>12.5181857537903</v>
+        <v>37.631841</v>
       </c>
       <c r="O10">
-        <v>0.2841246544106739</v>
+        <v>0.2423167019527259</v>
       </c>
       <c r="P10">
-        <v>0.2841246544106739</v>
+        <v>0.2423167019527259</v>
       </c>
       <c r="Q10">
-        <v>470.4111333270961</v>
+        <v>474.577015899103</v>
       </c>
       <c r="R10">
-        <v>470.4111333270961</v>
+        <v>4271.193143091928</v>
       </c>
       <c r="S10">
-        <v>0.2186219961088727</v>
+        <v>0.1821006131912382</v>
       </c>
       <c r="T10">
-        <v>0.2186219961088727</v>
+        <v>0.1821006131912382</v>
       </c>
     </row>
   </sheetData>
